--- a/office/근무표작성중/근무표5월6월초안(메일발송).xlsx
+++ b/office/근무표작성중/근무표5월6월초안(메일발송).xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\근무표작성중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA453D-471A-480A-9036-2561AAAB5723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5953FD-B99A-4BC4-81FE-150CFD00CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
   </bookViews>
   <sheets>
     <sheet name="5월초안" sheetId="4" r:id="rId1"/>
     <sheet name="6월초안" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5월초안'!$G$2:$G$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'6월초안'!$G$2:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$C$1:$C$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="23">
   <si>
     <t>권헌일</t>
   </si>
@@ -212,13 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +560,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,27 +572,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -621,13 +623,13 @@
       <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1531,22 +1533,22 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>10</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>11</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <v>10</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>10</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>10</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1565,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B6451-CA91-4534-955A-5912AB3B23AA}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1580,27 +1582,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1646,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -1820,10 +1822,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -1849,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -1881,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
@@ -1907,10 +1909,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -1936,13 +1938,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -1968,10 +1970,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1994,10 +1996,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
@@ -2023,13 +2025,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -2055,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
@@ -2081,10 +2083,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
@@ -2110,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2142,10 +2144,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2168,10 +2170,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>0</v>
@@ -2197,13 +2199,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -2229,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
@@ -2255,10 +2257,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
@@ -2284,13 +2286,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -2316,10 +2318,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2342,10 +2344,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>0</v>
@@ -2371,13 +2373,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -2403,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
@@ -2429,10 +2431,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>2</v>
@@ -2458,13 +2460,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -2490,10 +2492,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2528,63 +2530,46 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I35" s="3">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
-        <v>9</v>
-      </c>
-      <c r="K35" s="3">
-        <v>10</v>
-      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I36" s="3"/>
-      <c r="J36" s="3">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I37" s="3">
-        <v>2</v>
-      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3">
-        <v>2</v>
-      </c>
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I38" s="7">
-        <f>SUBTOTAL(9,I35:I37)</f>
+      <c r="I38" s="6">
         <v>10</v>
       </c>
-      <c r="J38" s="7">
-        <f>SUBTOTAL(9,J35:J37)</f>
+      <c r="J38" s="6">
         <v>10</v>
       </c>
-      <c r="K38" s="7">
-        <f>SUBTOTAL(9,K35:K37)</f>
+      <c r="K38" s="6">
         <v>13</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <v>10</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>10</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2597,4 +2582,408 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98E8102-F641-402A-9AB6-374E67819911}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C31" xr:uid="{A98E8102-F641-402A-9AB6-374E67819911}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="이영재,박병훈"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>